--- a/files/system/import-team-members-sample.xlsx
+++ b/files/system/import-team-members-sample.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Job Title</t>
   </si>
@@ -70,13 +70,55 @@
   </si>
   <si>
     <t>Leave Days</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>Teams</t>
+  </si>
+  <si>
+    <t>Container Team</t>
+  </si>
+  <si>
+    <t>Tanker Team</t>
+  </si>
+  <si>
+    <t>Surport Team</t>
+  </si>
+  <si>
+    <t>Date Of Hire</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>Role Id</t>
+  </si>
+  <si>
+    <t>female</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -91,6 +133,17 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,10 +167,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -399,95 +457,195 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="44.5703125" customWidth="1"/>
-    <col min="4" max="4" width="37.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="9" width="44.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="12" width="37.85546875" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="L1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>1234567890</v>
+      </c>
+      <c r="D2">
+        <v>5678901234</v>
+      </c>
+      <c r="E2" s="3">
+        <v>32092</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="H2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="3">
+        <v>44562</v>
+      </c>
+      <c r="J2" s="7">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2">
+      <c r="L2" s="2">
+        <v>123456</v>
+      </c>
+      <c r="M2">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>2345678901</v>
+      </c>
+      <c r="D3">
+        <v>6789012345</v>
+      </c>
+      <c r="E3" s="3">
+        <v>32093</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="H3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="3">
+        <v>36777</v>
+      </c>
+      <c r="J3" s="7">
+        <v>2</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3">
+      <c r="L3" s="2">
+        <v>123456</v>
+      </c>
+      <c r="M3">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>3456789012</v>
+      </c>
+      <c r="D4">
+        <v>7890123456</v>
+      </c>
+      <c r="E4" s="3">
+        <v>32094</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="H4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="3">
+        <v>32094</v>
+      </c>
+      <c r="J4" s="7">
+        <v>3</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E4">
+      <c r="L4" s="2">
+        <v>123456</v>
+      </c>
+      <c r="M4">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="K2" r:id="rId1"/>
+    <hyperlink ref="K3" r:id="rId2"/>
+    <hyperlink ref="K4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>